--- a/개인프로젝트_산출물/3.구현및시험단계/(양식)개인프로젝트_체크리스트.xlsx
+++ b/개인프로젝트_산출물/3.구현및시험단계/(양식)개인프로젝트_체크리스트.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="현재_통합_문서" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr filterPrivacy="1" codeName="현재_통합_문서"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1710DC96-F873-4104-8ACD-08846808B45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구현단계" sheetId="1" r:id="rId1"/>
@@ -14,17 +15,28 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">구현단계!$A$1:$F$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">시험단계!$A$1:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>비즈니스</t>
   </si>
@@ -83,16 +95,107 @@
   <si>
     <t>구현 단계 체크리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼잡도 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼잡도 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기</t>
+  </si>
+  <si>
+    <t>즐겨찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노선도 도식화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼잡도 API 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route.js, Route.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congestion.js, Conjestion.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-도착역과 출발역을 입력받고 api를 호출하여 사이 경로를 모두 출력
+'-UI에 구현 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-역들의 배열을 입력받아 해당 시간의 해당열차의 혼잡도를 출력
+'-UI구현x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StationService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노선도</t>
+  </si>
+  <si>
+    <t>StaionPathView.js</t>
+  </si>
+  <si>
+    <t>이력관리</t>
+  </si>
+  <si>
+    <t>검색이력</t>
+  </si>
+  <si>
+    <t>로그인이력</t>
+  </si>
+  <si>
+    <t>검색 저장</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +260,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC75252"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -334,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,9 +462,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -387,6 +495,24 @@
     <xf numFmtId="176" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,29 +534,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,249 +831,295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.25" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="8" customWidth="1"/>
+    <col min="6" max="6" width="57.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="17">
+      <c r="B3" s="26"/>
+      <c r="C3" s="16">
         <f>AVERAGE(E7:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.10769230769230768</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11" t="s">
+    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11" t="s">
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A3:B3"/>
@@ -968,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -976,236 +1142,236 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.25" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="8" customWidth="1"/>
+    <col min="6" max="6" width="42.19921875" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="32">
+      <c r="C3" s="22">
         <f>AVERAGE(E7:E19)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="19"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11" t="s">
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
     </row>

--- a/개인프로젝트_산출물/3.구현및시험단계/(양식)개인프로젝트_체크리스트.xlsx
+++ b/개인프로젝트_산출물/3.구현및시험단계/(양식)개인프로젝트_체크리스트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="현재_통합_문서"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1710DC96-F873-4104-8ACD-08846808B45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF0F74-91EB-4359-BC3B-83EC5837354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,6 +513,9 @@
     <xf numFmtId="176" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,17 +543,17 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,7 +839,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -851,14 +854,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
@@ -869,10 +872,10 @@
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="16">
         <f>AVERAGE(E7:E19)</f>
         <v>0.10769230769230768</v>
@@ -886,23 +889,23 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
@@ -917,13 +920,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="15">
         <v>0</v>
@@ -933,11 +936,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="15">
         <v>0</v>
@@ -947,11 +950,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="15">
         <v>0</v>
@@ -961,11 +964,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="15">
         <v>0</v>
@@ -975,11 +978,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="15">
         <v>0</v>
@@ -989,7 +992,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="33" t="s">
@@ -1004,30 +1007,30 @@
       <c r="E12" s="15">
         <v>0.7</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="15">
         <v>0.7</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1041,14 +1044,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="15">
@@ -1059,13 +1062,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="7"/>
@@ -1077,11 +1080,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="7"/>
@@ -1093,10 +1096,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="15">
         <v>0</v>
       </c>
@@ -1105,10 +1108,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="15">
         <v>0</v>
       </c>
@@ -1117,7 +1120,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A1:F1"/>
@@ -1125,6 +1128,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1154,14 +1158,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11"/>
@@ -1172,10 +1176,10 @@
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="22">
         <f>AVERAGE(E7:E19)</f>
         <v>0</v>
@@ -1189,23 +1193,23 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
